--- a/output/county_grandtots_bothyears.xlsx
+++ b/output/county_grandtots_bothyears.xlsx
@@ -1612,7 +1612,7 @@
         <v>197</v>
       </c>
       <c r="L27">
-        <v>90.37000000000001</v>
+        <v>90.37</v>
       </c>
     </row>
     <row r="28">
@@ -2992,7 +2992,7 @@
         <v>-1072</v>
       </c>
       <c r="L57">
-        <v>-65.49</v>
+        <v>-65.48999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -3268,7 +3268,7 @@
         <v>-2014</v>
       </c>
       <c r="L63">
-        <v>-82.24</v>
+        <v>-82.23999999999999</v>
       </c>
     </row>
     <row r="64">
@@ -3354,13 +3354,13 @@
         <v>-287</v>
       </c>
       <c r="J65">
-        <v>-74.74</v>
+        <v>-74.73999999999999</v>
       </c>
       <c r="K65">
         <v>-383</v>
       </c>
       <c r="L65">
-        <v>-99.74</v>
+        <v>-99.73999999999999</v>
       </c>
     </row>
     <row r="66">
@@ -3590,7 +3590,7 @@
         <v>-376</v>
       </c>
       <c r="L70">
-        <v>-77.37000000000001</v>
+        <v>-77.37</v>
       </c>
     </row>
     <row r="71">
@@ -3682,7 +3682,7 @@
         <v>-590</v>
       </c>
       <c r="L72">
-        <v>-67.74</v>
+        <v>-67.73999999999999</v>
       </c>
     </row>
     <row r="73">
@@ -3912,7 +3912,7 @@
         <v>-1428</v>
       </c>
       <c r="L77">
-        <v>-73.49</v>
+        <v>-73.48999999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4004,7 +4004,7 @@
         <v>-671</v>
       </c>
       <c r="L79">
-        <v>-84.62000000000001</v>
+        <v>-84.62</v>
       </c>
     </row>
     <row r="80">
@@ -5338,7 +5338,7 @@
         <v>-6872</v>
       </c>
       <c r="L108">
-        <v>-74.37000000000001</v>
+        <v>-74.37</v>
       </c>
     </row>
     <row r="109">
@@ -5476,7 +5476,7 @@
         <v>-5571</v>
       </c>
       <c r="L111">
-        <v>-70.62000000000001</v>
+        <v>-70.62</v>
       </c>
     </row>
     <row r="112">
@@ -5568,7 +5568,7 @@
         <v>-828</v>
       </c>
       <c r="L113">
-        <v>-69.99</v>
+        <v>-69.98999999999999</v>
       </c>
     </row>
     <row r="114">
@@ -5608,7 +5608,7 @@
         <v>-714</v>
       </c>
       <c r="J114">
-        <v>-72.12000000000001</v>
+        <v>-72.12</v>
       </c>
       <c r="K114">
         <v>-947</v>
@@ -5982,7 +5982,7 @@
         <v>-11</v>
       </c>
       <c r="L122">
-        <v>-84.62000000000001</v>
+        <v>-84.62</v>
       </c>
     </row>
     <row r="123">
@@ -6304,7 +6304,7 @@
         <v>14219</v>
       </c>
       <c r="L129">
-        <v>81.62000000000001</v>
+        <v>81.62</v>
       </c>
     </row>
     <row r="130">
@@ -6758,7 +6758,7 @@
         <v>-1474026</v>
       </c>
       <c r="J139">
-        <v>-70.62000000000001</v>
+        <v>-70.62</v>
       </c>
       <c r="K139">
         <v>338844</v>
@@ -8000,7 +8000,7 @@
         <v>-1685</v>
       </c>
       <c r="J166">
-        <v>-75.87000000000001</v>
+        <v>-75.87</v>
       </c>
       <c r="K166">
         <v>-50</v>
@@ -8414,7 +8414,7 @@
         <v>-24094</v>
       </c>
       <c r="J175">
-        <v>-98.99</v>
+        <v>-98.98999999999999</v>
       </c>
       <c r="K175">
         <v>-4195</v>
@@ -8506,7 +8506,7 @@
         <v>-66504</v>
       </c>
       <c r="J177">
-        <v>-99.12000000000001</v>
+        <v>-99.12</v>
       </c>
       <c r="K177">
         <v>-11692</v>
@@ -8736,7 +8736,7 @@
         <v>-8085</v>
       </c>
       <c r="J182">
-        <v>-93.12000000000001</v>
+        <v>-93.12</v>
       </c>
       <c r="K182">
         <v>-1222</v>
@@ -9380,7 +9380,7 @@
         <v>-1421</v>
       </c>
       <c r="J196">
-        <v>-97.87000000000001</v>
+        <v>-97.87</v>
       </c>
       <c r="K196">
         <v>-239</v>
@@ -9886,7 +9886,7 @@
         <v>-3772</v>
       </c>
       <c r="J207">
-        <v>-84.12000000000001</v>
+        <v>-84.12</v>
       </c>
       <c r="K207">
         <v>-231</v>
@@ -10306,7 +10306,7 @@
         <v>-385</v>
       </c>
       <c r="L216">
-        <v>-84.99</v>
+        <v>-84.98999999999999</v>
       </c>
     </row>
     <row r="217">
@@ -10438,7 +10438,7 @@
         <v>-714</v>
       </c>
       <c r="J219">
-        <v>-98.62000000000001</v>
+        <v>-98.62</v>
       </c>
       <c r="K219">
         <v>-209</v>
@@ -10490,7 +10490,7 @@
         <v>-1572</v>
       </c>
       <c r="L220">
-        <v>-98.74</v>
+        <v>-98.73999999999999</v>
       </c>
     </row>
     <row r="221">
@@ -10536,7 +10536,7 @@
         <v>1049</v>
       </c>
       <c r="L221">
-        <v>70.12000000000001</v>
+        <v>70.12</v>
       </c>
     </row>
     <row r="222">
@@ -10628,7 +10628,7 @@
         <v>-2330</v>
       </c>
       <c r="L223">
-        <v>-80.37000000000001</v>
+        <v>-80.37</v>
       </c>
     </row>
     <row r="224">
@@ -11266,7 +11266,7 @@
         <v>-1416</v>
       </c>
       <c r="J237">
-        <v>-89.62000000000001</v>
+        <v>-89.62</v>
       </c>
       <c r="K237">
         <v>-211</v>
@@ -11858,7 +11858,7 @@
         <v>38254</v>
       </c>
       <c r="J253">
-        <v>538.18</v>
+        <v>538.1799999999999</v>
       </c>
       <c r="K253">
         <v>21030</v>
@@ -12962,7 +12962,7 @@
         <v>972</v>
       </c>
       <c r="J277">
-        <v>85.87000000000001</v>
+        <v>85.87</v>
       </c>
       <c r="K277">
         <v>364</v>
@@ -14992,7 +14992,7 @@
         <v>1125</v>
       </c>
       <c r="L321">
-        <v>80.24</v>
+        <v>80.23999999999999</v>
       </c>
     </row>
     <row r="322">
@@ -15952,7 +15952,7 @@
         <v>9853</v>
       </c>
       <c r="J342">
-        <v>92.87000000000001</v>
+        <v>92.87</v>
       </c>
       <c r="K342">
         <v>4814</v>
@@ -16970,7 +16970,7 @@
         <v>66453</v>
       </c>
       <c r="L364">
-        <v>96.99</v>
+        <v>96.98999999999999</v>
       </c>
     </row>
     <row r="365">
@@ -17792,7 +17792,7 @@
         <v>280</v>
       </c>
       <c r="J382">
-        <v>78.87000000000001</v>
+        <v>78.87</v>
       </c>
       <c r="K382">
         <v>178</v>
@@ -17930,7 +17930,7 @@
         <v>1846</v>
       </c>
       <c r="J385">
-        <v>67.87000000000001</v>
+        <v>67.87</v>
       </c>
       <c r="K385">
         <v>594</v>
@@ -18436,7 +18436,7 @@
         <v>11482</v>
       </c>
       <c r="J396">
-        <v>73.62000000000001</v>
+        <v>73.62</v>
       </c>
       <c r="K396">
         <v>-394</v>
@@ -19448,7 +19448,7 @@
         <v>706</v>
       </c>
       <c r="J418">
-        <v>85.37000000000001</v>
+        <v>85.37</v>
       </c>
       <c r="K418">
         <v>484</v>
@@ -20644,7 +20644,7 @@
         <v>1260</v>
       </c>
       <c r="J444">
-        <v>92.99</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="K444">
         <v>538</v>
@@ -20690,7 +20690,7 @@
         <v>592</v>
       </c>
       <c r="J445">
-        <v>78.62000000000001</v>
+        <v>78.62</v>
       </c>
       <c r="K445">
         <v>235</v>
@@ -21840,7 +21840,7 @@
         <v>1924</v>
       </c>
       <c r="J470">
-        <v>75.87000000000001</v>
+        <v>75.87</v>
       </c>
       <c r="K470">
         <v>822</v>
@@ -23220,7 +23220,7 @@
         <v>2043</v>
       </c>
       <c r="J500">
-        <v>642.4500000000001</v>
+        <v>642.45</v>
       </c>
       <c r="K500">
         <v>789</v>
@@ -23956,7 +23956,7 @@
         <v>1839</v>
       </c>
       <c r="J516">
-        <v>526.93</v>
+        <v>526.9299999999999</v>
       </c>
       <c r="K516">
         <v>787</v>
@@ -25342,7 +25342,7 @@
         <v>790</v>
       </c>
       <c r="L546">
-        <v>80.12000000000001</v>
+        <v>80.12</v>
       </c>
     </row>
     <row r="547">
@@ -25526,7 +25526,7 @@
         <v>244</v>
       </c>
       <c r="L550">
-        <v>76.49</v>
+        <v>76.48999999999999</v>
       </c>
     </row>
     <row r="551">
@@ -26078,7 +26078,7 @@
         <v>2413</v>
       </c>
       <c r="L562">
-        <v>94.37000000000001</v>
+        <v>94.37</v>
       </c>
     </row>
     <row r="563">
@@ -28510,7 +28510,7 @@
         <v>3817</v>
       </c>
       <c r="J615">
-        <v>93.37000000000001</v>
+        <v>93.37</v>
       </c>
       <c r="K615">
         <v>2600</v>
@@ -33340,13 +33340,13 @@
         <v>938</v>
       </c>
       <c r="J720">
-        <v>72.49</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="K720">
         <v>632</v>
       </c>
       <c r="L720">
-        <v>71.74</v>
+        <v>71.73999999999999</v>
       </c>
     </row>
     <row r="721">
@@ -33898,7 +33898,7 @@
         <v>-1046</v>
       </c>
       <c r="L732">
-        <v>-72.74</v>
+        <v>-72.73999999999999</v>
       </c>
     </row>
     <row r="733">
@@ -35922,7 +35922,7 @@
         <v>-2802</v>
       </c>
       <c r="L776">
-        <v>-71.12000000000001</v>
+        <v>-71.12</v>
       </c>
     </row>
     <row r="777">
@@ -35968,7 +35968,7 @@
         <v>-71</v>
       </c>
       <c r="L777">
-        <v>-74.74</v>
+        <v>-74.73999999999999</v>
       </c>
     </row>
     <row r="778">
@@ -36612,7 +36612,7 @@
         <v>-115</v>
       </c>
       <c r="L791">
-        <v>-87.12000000000001</v>
+        <v>-87.12</v>
       </c>
     </row>
     <row r="792">
@@ -36796,7 +36796,7 @@
         <v>-47</v>
       </c>
       <c r="L795">
-        <v>-68.12000000000001</v>
+        <v>-68.12</v>
       </c>
     </row>
     <row r="796">
@@ -43328,7 +43328,7 @@
         <v>421</v>
       </c>
       <c r="L937">
-        <v>64.87000000000001</v>
+        <v>64.87</v>
       </c>
     </row>
     <row r="938">
@@ -43512,7 +43512,7 @@
         <v>2400</v>
       </c>
       <c r="L941">
-        <v>84.24</v>
+        <v>84.23999999999999</v>
       </c>
     </row>
     <row r="942">
@@ -46732,7 +46732,7 @@
         <v>978</v>
       </c>
       <c r="L1011">
-        <v>635.06</v>
+        <v>635.0599999999999</v>
       </c>
     </row>
     <row r="1012">
@@ -48980,7 +48980,7 @@
         <v>3692</v>
       </c>
       <c r="J1060">
-        <v>90.62000000000001</v>
+        <v>90.62</v>
       </c>
       <c r="K1060">
         <v>118</v>
@@ -49440,7 +49440,7 @@
         <v>762</v>
       </c>
       <c r="J1070">
-        <v>72.99</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="K1070">
         <v>-59</v>
@@ -55886,7 +55886,7 @@
         <v>20891</v>
       </c>
       <c r="L1210">
-        <v>520.06</v>
+        <v>520.0599999999999</v>
       </c>
     </row>
     <row r="1211">
@@ -56024,7 +56024,7 @@
         <v>50402</v>
       </c>
       <c r="L1213">
-        <v>523.06</v>
+        <v>523.0599999999999</v>
       </c>
     </row>
     <row r="1214">
@@ -57950,7 +57950,7 @@
         <v>1537</v>
       </c>
       <c r="J1255">
-        <v>84.87000000000001</v>
+        <v>84.87</v>
       </c>
       <c r="K1255">
         <v>460</v>
@@ -58364,7 +58364,7 @@
         <v>-30</v>
       </c>
       <c r="J1264">
-        <v>-0.9300000000000001</v>
+        <v>-0.93</v>
       </c>
       <c r="K1264">
         <v>259</v>
@@ -60388,7 +60388,7 @@
         <v>12916</v>
       </c>
       <c r="J1308">
-        <v>93.49</v>
+        <v>93.48999999999999</v>
       </c>
       <c r="K1308">
         <v>15314</v>
@@ -60434,7 +60434,7 @@
         <v>2780</v>
       </c>
       <c r="J1309">
-        <v>84.24</v>
+        <v>84.23999999999999</v>
       </c>
       <c r="K1309">
         <v>3075</v>
@@ -60894,7 +60894,7 @@
         <v>72351</v>
       </c>
       <c r="J1319">
-        <v>69.62000000000001</v>
+        <v>69.62</v>
       </c>
       <c r="K1319">
         <v>86498</v>
@@ -61814,7 +61814,7 @@
         <v>7433</v>
       </c>
       <c r="J1339">
-        <v>78.37000000000001</v>
+        <v>78.37</v>
       </c>
       <c r="K1339">
         <v>8672</v>
@@ -65632,7 +65632,7 @@
         <v>2348</v>
       </c>
       <c r="J1422">
-        <v>78.24</v>
+        <v>78.23999999999999</v>
       </c>
       <c r="K1422">
         <v>1263</v>
@@ -65776,7 +65776,7 @@
         <v>-15783</v>
       </c>
       <c r="L1425">
-        <v>-98.74</v>
+        <v>-98.73999999999999</v>
       </c>
     </row>
     <row r="1426">
@@ -66046,7 +66046,7 @@
         <v>4404</v>
       </c>
       <c r="J1431">
-        <v>87.24</v>
+        <v>87.23999999999999</v>
       </c>
       <c r="K1431">
         <v>3054</v>
@@ -66138,7 +66138,7 @@
         <v>29066</v>
       </c>
       <c r="J1433">
-        <v>89.62000000000001</v>
+        <v>89.62</v>
       </c>
       <c r="K1433">
         <v>14067</v>
@@ -66558,7 +66558,7 @@
         <v>1816</v>
       </c>
       <c r="L1442">
-        <v>70.12000000000001</v>
+        <v>70.12</v>
       </c>
     </row>
     <row r="1443">
@@ -66782,7 +66782,7 @@
         <v>-2617</v>
       </c>
       <c r="J1447">
-        <v>-99.24</v>
+        <v>-99.23999999999999</v>
       </c>
       <c r="K1447">
         <v>-1644</v>
@@ -67702,7 +67702,7 @@
         <v>9571</v>
       </c>
       <c r="J1467">
-        <v>71.62000000000001</v>
+        <v>71.62</v>
       </c>
       <c r="K1467">
         <v>-1666</v>
@@ -67846,7 +67846,7 @@
         <v>870</v>
       </c>
       <c r="L1470">
-        <v>76.12000000000001</v>
+        <v>76.12</v>
       </c>
     </row>
     <row r="1471">
@@ -71560,13 +71560,13 @@
         <v>-3205</v>
       </c>
       <c r="J1581">
-        <v>-98.37000000000001</v>
+        <v>-98.37</v>
       </c>
       <c r="K1581">
         <v>-3205</v>
       </c>
       <c r="L1581">
-        <v>-98.37000000000001</v>
+        <v>-98.37</v>
       </c>
     </row>
     <row r="1582">
@@ -72112,7 +72112,7 @@
         <v>-1678</v>
       </c>
       <c r="J1593">
-        <v>-90.12000000000001</v>
+        <v>-90.12</v>
       </c>
       <c r="K1593">
         <v>-1676</v>
@@ -72618,13 +72618,13 @@
         <v>-4581</v>
       </c>
       <c r="J1604">
-        <v>-94.49</v>
+        <v>-94.48999999999999</v>
       </c>
       <c r="K1604">
         <v>-4580</v>
       </c>
       <c r="L1604">
-        <v>-94.49</v>
+        <v>-94.48999999999999</v>
       </c>
     </row>
     <row r="1605">
@@ -79614,7 +79614,7 @@
         <v>-8415</v>
       </c>
       <c r="L1808">
-        <v>-64.24</v>
+        <v>-64.23999999999999</v>
       </c>
     </row>
     <row r="1809">
@@ -87262,7 +87262,7 @@
         <v>9722</v>
       </c>
       <c r="L1975">
-        <v>851.31</v>
+        <v>851.3099999999999</v>
       </c>
     </row>
     <row r="1976">
@@ -91414,7 +91414,7 @@
         <v>102429</v>
       </c>
       <c r="L2066">
-        <v>69.74</v>
+        <v>69.73999999999999</v>
       </c>
     </row>
     <row r="2067">
@@ -93162,7 +93162,7 @@
         <v>-17653</v>
       </c>
       <c r="L2104">
-        <v>-71.24</v>
+        <v>-71.23999999999999</v>
       </c>
     </row>
     <row r="2105">
@@ -93208,7 +93208,7 @@
         <v>-367</v>
       </c>
       <c r="L2105">
-        <v>-97.87000000000001</v>
+        <v>-97.87</v>
       </c>
     </row>
     <row r="2106">
@@ -93754,7 +93754,7 @@
         <v>-14218</v>
       </c>
       <c r="J2117">
-        <v>-99.99</v>
+        <v>-99.98999999999999</v>
       </c>
       <c r="K2117">
         <v>-1795</v>
@@ -93892,7 +93892,7 @@
         <v>-93178</v>
       </c>
       <c r="J2120">
-        <v>-98.87000000000001</v>
+        <v>-98.87</v>
       </c>
       <c r="K2120">
         <v>-12105</v>
@@ -94030,7 +94030,7 @@
         <v>16461</v>
       </c>
       <c r="J2123">
-        <v>671.06</v>
+        <v>671.0599999999999</v>
       </c>
       <c r="K2123">
         <v>4380</v>
@@ -94214,7 +94214,7 @@
         <v>4632</v>
       </c>
       <c r="J2127">
-        <v>581.18</v>
+        <v>581.1799999999999</v>
       </c>
       <c r="K2127">
         <v>1321</v>
@@ -94588,7 +94588,7 @@
         <v>4140</v>
       </c>
       <c r="L2135">
-        <v>528.06</v>
+        <v>528.0599999999999</v>
       </c>
     </row>
     <row r="2136">
@@ -95094,7 +95094,7 @@
         <v>4516</v>
       </c>
       <c r="L2146">
-        <v>529.43</v>
+        <v>529.4299999999999</v>
       </c>
     </row>
     <row r="2147">
@@ -95226,7 +95226,7 @@
         <v>2049</v>
       </c>
       <c r="J2149">
-        <v>542.06</v>
+        <v>542.0599999999999</v>
       </c>
       <c r="K2149">
         <v>1736</v>
@@ -95278,7 +95278,7 @@
         <v>5869</v>
       </c>
       <c r="L2150">
-        <v>653.56</v>
+        <v>653.5599999999999</v>
       </c>
     </row>
     <row r="2151">
@@ -96790,7 +96790,7 @@
         <v>4949</v>
       </c>
       <c r="J2183">
-        <v>528.18</v>
+        <v>528.1799999999999</v>
       </c>
       <c r="K2183">
         <v>4229</v>
@@ -97440,7 +97440,7 @@
         <v>2411</v>
       </c>
       <c r="L2197">
-        <v>595.31</v>
+        <v>595.3099999999999</v>
       </c>
     </row>
     <row r="2198">
@@ -98866,7 +98866,7 @@
         <v>2563</v>
       </c>
       <c r="L2228">
-        <v>581.18</v>
+        <v>581.1799999999999</v>
       </c>
     </row>
     <row r="2229">
@@ -99458,7 +99458,7 @@
         <v>1205</v>
       </c>
       <c r="J2241">
-        <v>611.68</v>
+        <v>611.6799999999999</v>
       </c>
       <c r="K2241">
         <v>1002</v>
@@ -99596,13 +99596,13 @@
         <v>27263</v>
       </c>
       <c r="J2244">
-        <v>620.18</v>
+        <v>620.1799999999999</v>
       </c>
       <c r="K2244">
         <v>21884</v>
       </c>
       <c r="L2244">
-        <v>756.4500000000001</v>
+        <v>756.45</v>
       </c>
     </row>
     <row r="2245">
@@ -99648,7 +99648,7 @@
         <v>5170</v>
       </c>
       <c r="L2245">
-        <v>654.43</v>
+        <v>654.4299999999999</v>
       </c>
     </row>
     <row r="2246">
@@ -99918,7 +99918,7 @@
         <v>2152</v>
       </c>
       <c r="J2251">
-        <v>583.2000000000001</v>
+        <v>583.2</v>
       </c>
       <c r="K2251">
         <v>1772</v>
@@ -100378,7 +100378,7 @@
         <v>5102</v>
       </c>
       <c r="J2261">
-        <v>533.68</v>
+        <v>533.6799999999999</v>
       </c>
       <c r="K2261">
         <v>4366</v>
@@ -100430,7 +100430,7 @@
         <v>4743</v>
       </c>
       <c r="L2262">
-        <v>695.4500000000001</v>
+        <v>695.45</v>
       </c>
     </row>
     <row r="2263">
@@ -100614,7 +100614,7 @@
         <v>2884</v>
       </c>
       <c r="L2266">
-        <v>551.43</v>
+        <v>551.4299999999999</v>
       </c>
     </row>
     <row r="2267">
@@ -103604,7 +103604,7 @@
         <v>2632</v>
       </c>
       <c r="L2331">
-        <v>81.74</v>
+        <v>81.73999999999999</v>
       </c>
     </row>
     <row r="2332">
@@ -104938,7 +104938,7 @@
         <v>1755</v>
       </c>
       <c r="L2360">
-        <v>95.12000000000001</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="2361">
@@ -105122,7 +105122,7 @@
         <v>1356</v>
       </c>
       <c r="L2364">
-        <v>96.24</v>
+        <v>96.23999999999999</v>
       </c>
     </row>
     <row r="2365">
@@ -105260,7 +105260,7 @@
         <v>10039</v>
       </c>
       <c r="L2367">
-        <v>72.37000000000001</v>
+        <v>72.37</v>
       </c>
     </row>
     <row r="2368">
@@ -105674,7 +105674,7 @@
         <v>8622</v>
       </c>
       <c r="L2376">
-        <v>94.49</v>
+        <v>94.48999999999999</v>
       </c>
     </row>
     <row r="2377">
@@ -106870,7 +106870,7 @@
         <v>796</v>
       </c>
       <c r="L2402">
-        <v>94.99</v>
+        <v>94.98999999999999</v>
       </c>
     </row>
     <row r="2403">
@@ -107002,13 +107002,13 @@
         <v>9831</v>
       </c>
       <c r="J2405">
-        <v>97.62000000000001</v>
+        <v>97.62</v>
       </c>
       <c r="K2405">
         <v>6798</v>
       </c>
       <c r="L2405">
-        <v>78.12000000000001</v>
+        <v>78.12</v>
       </c>
     </row>
     <row r="2406">
